--- a/var_info/indv_panel_var_info/PHF_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/PHF_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B8432-CB55-AF4E-A70A-A034533B9569}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1E7358-8876-7C48-8C1E-A6D8DEC3EB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51600" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="69">
   <si>
     <t>pro</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -731,16 +734,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1096,11 +1096,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1109,54 +1109,57 @@
     <col min="4" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1187,9 +1190,11 @@
       <c r="J2">
         <v>4</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1220,9 +1225,11 @@
       <c r="J3">
         <v>4</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1253,9 +1260,11 @@
       <c r="J4">
         <v>4</v>
       </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1286,9 +1295,11 @@
       <c r="J5">
         <v>11</v>
       </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1319,9 +1330,11 @@
       <c r="J6">
         <v>11</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1352,158 +1365,39 @@
       <c r="J7">
         <v>11</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D38" s="3"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="3"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D40" s="3"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D41" s="3"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D42" s="3"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D43" s="3"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D44" s="3"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D45" s="3"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D46" s="3"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D47" s="3"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M50" s="2"/>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1512,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1523,54 +1417,57 @@
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1586,11 +1483,11 @@
       <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1606,11 +1503,11 @@
       <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1626,11 +1523,11 @@
       <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1646,11 +1543,11 @@
       <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1666,11 +1563,11 @@
       <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1686,11 +1583,11 @@
       <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1706,11 +1603,11 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1726,11 +1623,11 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1746,11 +1643,11 @@
       <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1766,11 +1663,11 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1786,11 +1683,11 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1806,11 +1703,11 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1826,11 +1723,11 @@
       <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1846,11 +1743,11 @@
       <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1866,11 +1763,11 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1886,11 +1783,11 @@
       <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1906,11 +1803,11 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1926,7 +1823,7 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1937,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1948,54 +1845,57 @@
     <col min="3" max="3" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2011,11 +1911,11 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2031,11 +1931,11 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2051,18 +1951,18 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" t="s">
@@ -2071,18 +1971,18 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
@@ -2091,18 +1991,18 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D7" t="s">
@@ -2111,18 +2011,18 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D8" t="s">
@@ -2131,18 +2031,18 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D9" t="s">
@@ -2151,18 +2051,18 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
@@ -2171,7 +2071,7 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2182,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2193,54 +2093,57 @@
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2256,11 +2159,11 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2276,11 +2179,11 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2296,11 +2199,11 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2316,11 +2219,11 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2336,11 +2239,11 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2356,7 +2259,7 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2367,58 +2270,61 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A85E1B4-6E48-9643-B927-0FB77A3D9FCF}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2431,7 +2337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928A929B-EEB9-C643-9E22-A0B126FA338A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
